--- a/Excel/Power Query/001_Dados.xlsx
+++ b/Excel/Power Query/001_Dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Curso de Excel\Power Query\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\Power Query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5C0898-B101-40B6-9214-219E6B58C73A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3A378B-9A11-424E-BF1D-D471D6C148D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
+    <workbookView xWindow="2314" yWindow="3617" windowWidth="16115" windowHeight="13269" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas" sheetId="1" r:id="rId1"/>
@@ -185,8 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -504,789 +503,786 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7D83A1-064B-4E78-A12C-77460512D36D}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A3:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="1" max="2" width="11.765625" customWidth="1"/>
+    <col min="3" max="3" width="21.53515625" customWidth="1"/>
+    <col min="4" max="4" width="11.765625" customWidth="1"/>
+    <col min="5" max="5" width="32.3046875" customWidth="1"/>
+    <col min="6" max="6" width="18.07421875" customWidth="1"/>
+    <col min="7" max="7" width="19.765625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>44923</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>89.99</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>44933</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>69.989999999999995</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>44943</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>153.4</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>44953</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>148.56</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>44963</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>146.13999999999999</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>44973</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>224.14</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>44983</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>150.5</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>44993</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>248.73</v>
       </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>45003</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>116.52</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>45013</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>59.9</v>
       </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>45023</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>46.9</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>45033</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>41.9</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>45043</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>81.900000000000006</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>45053</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>55.9</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>45063</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>89.9</v>
       </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>45073</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>89.99</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>45083</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>69.989999999999995</v>
       </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>45093</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>153.4</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>45103</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>148.56</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>45113</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>146.13999999999999</v>
       </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>45123</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>224.14</v>
       </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>45133</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
         <v>150.5</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>45143</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
         <v>248.73</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>45153</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
         <v>116.52</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>45163</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <v>59.9</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>45173</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
         <v>46.9</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="1" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>45183</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>41.9</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>45193</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>81.900000000000006</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>45203</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>116.52</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>45213</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>59.9</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>45223</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>40</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>45233</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>390</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>45243</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>148.56</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="1" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>45253</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>153.4</v>
       </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>45263</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>40</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="1" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>45273</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>81.900000000000006</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="1" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>45283</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>153.4</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <v>1</v>
       </c>
     </row>
